--- a/data/pca/factorExposure/factorExposure_2012-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-04.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0174677924736415</v>
+        <v>0.0215678810461412</v>
       </c>
       <c r="C2">
-        <v>-0.03216521094582975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02534811880372512</v>
+      </c>
+      <c r="D2">
+        <v>0.004648532664067073</v>
+      </c>
+      <c r="E2">
+        <v>-0.02985791775074926</v>
+      </c>
+      <c r="F2">
+        <v>0.008267813339012367</v>
+      </c>
+      <c r="G2">
+        <v>0.007223368499726723</v>
+      </c>
+      <c r="H2">
+        <v>0.0560480856642911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06943854438377972</v>
+        <v>0.07935233470624829</v>
       </c>
       <c r="C4">
-        <v>-0.06240283627028118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04163683959436715</v>
+      </c>
+      <c r="D4">
+        <v>-0.07038565991163818</v>
+      </c>
+      <c r="E4">
+        <v>-0.001449648564783409</v>
+      </c>
+      <c r="F4">
+        <v>0.03394647788232669</v>
+      </c>
+      <c r="G4">
+        <v>-0.004195863976594261</v>
+      </c>
+      <c r="H4">
+        <v>-0.02204022405274443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09808397410784678</v>
+        <v>0.1153562869871991</v>
       </c>
       <c r="C6">
-        <v>-0.06808881197049355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04313076514149028</v>
+      </c>
+      <c r="D6">
+        <v>-0.01340794717726725</v>
+      </c>
+      <c r="E6">
+        <v>0.005490215424593064</v>
+      </c>
+      <c r="F6">
+        <v>0.0493308670068355</v>
+      </c>
+      <c r="G6">
+        <v>0.01121104502597859</v>
+      </c>
+      <c r="H6">
+        <v>0.06139852365253446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0469502682870386</v>
+        <v>0.05784471723859179</v>
       </c>
       <c r="C7">
-        <v>-0.03589000389492093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02540755013542134</v>
+      </c>
+      <c r="D7">
+        <v>-0.03683410986125073</v>
+      </c>
+      <c r="E7">
+        <v>-0.02024946531415505</v>
+      </c>
+      <c r="F7">
+        <v>0.03668724007059077</v>
+      </c>
+      <c r="G7">
+        <v>-0.04514107452397169</v>
+      </c>
+      <c r="H7">
+        <v>-0.0227106872986364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03595001551257627</v>
+        <v>0.03880548719258128</v>
       </c>
       <c r="C8">
-        <v>-0.02777969878069539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01554145214380128</v>
+      </c>
+      <c r="D8">
+        <v>-0.04198494159702205</v>
+      </c>
+      <c r="E8">
+        <v>-0.004927381403896119</v>
+      </c>
+      <c r="F8">
+        <v>0.05088251924491427</v>
+      </c>
+      <c r="G8">
+        <v>0.02795886268199079</v>
+      </c>
+      <c r="H8">
+        <v>0.0221722186590127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06369318702136241</v>
+        <v>0.07337707759736531</v>
       </c>
       <c r="C9">
-        <v>-0.0495972901210542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03057292487529609</v>
+      </c>
+      <c r="D9">
+        <v>-0.0679835516561246</v>
+      </c>
+      <c r="E9">
+        <v>-0.01815339319748374</v>
+      </c>
+      <c r="F9">
+        <v>0.0412811820991191</v>
+      </c>
+      <c r="G9">
+        <v>-0.005930147590525453</v>
+      </c>
+      <c r="H9">
+        <v>-0.04851789919364619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02904808081206375</v>
+        <v>0.03978586627886572</v>
       </c>
       <c r="C10">
-        <v>-0.03460807001550761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03655405047374571</v>
+      </c>
+      <c r="D10">
+        <v>0.1798586448386427</v>
+      </c>
+      <c r="E10">
+        <v>-0.04715545076010948</v>
+      </c>
+      <c r="F10">
+        <v>0.03751187906938393</v>
+      </c>
+      <c r="G10">
+        <v>-0.0420988609402722</v>
+      </c>
+      <c r="H10">
+        <v>0.02739998593255419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06676749045576424</v>
+        <v>0.07544436680135849</v>
       </c>
       <c r="C11">
-        <v>-0.05140326599167278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.030125862024835</v>
+      </c>
+      <c r="D11">
+        <v>-0.06747599399086425</v>
+      </c>
+      <c r="E11">
+        <v>0.01092342513712317</v>
+      </c>
+      <c r="F11">
+        <v>0.03399618102418262</v>
+      </c>
+      <c r="G11">
+        <v>-0.0207446004337927</v>
+      </c>
+      <c r="H11">
+        <v>-0.0845642750097774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05192397725571156</v>
+        <v>0.06362933464058479</v>
       </c>
       <c r="C12">
-        <v>-0.05190950931800896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03611269783830688</v>
+      </c>
+      <c r="D12">
+        <v>-0.05285995492096444</v>
+      </c>
+      <c r="E12">
+        <v>-0.00838804836498961</v>
+      </c>
+      <c r="F12">
+        <v>0.03060495698613547</v>
+      </c>
+      <c r="G12">
+        <v>-0.01567037089458145</v>
+      </c>
+      <c r="H12">
+        <v>-0.04297123071317214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05889510461582422</v>
+        <v>0.0651819752447968</v>
       </c>
       <c r="C13">
-        <v>-0.05198764878867049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03140399572424613</v>
+      </c>
+      <c r="D13">
+        <v>-0.0477195478089631</v>
+      </c>
+      <c r="E13">
+        <v>-0.00830940345083292</v>
+      </c>
+      <c r="F13">
+        <v>0.01669709727704438</v>
+      </c>
+      <c r="G13">
+        <v>-0.002875944835080258</v>
+      </c>
+      <c r="H13">
+        <v>-0.06394927534612453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03126213061105221</v>
+        <v>0.03914541987920511</v>
       </c>
       <c r="C14">
-        <v>-0.02954257211095411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02253414301627353</v>
+      </c>
+      <c r="D14">
+        <v>-0.008519686566809556</v>
+      </c>
+      <c r="E14">
+        <v>-0.01732157211614387</v>
+      </c>
+      <c r="F14">
+        <v>0.01889252291383619</v>
+      </c>
+      <c r="G14">
+        <v>-0.00115562603167495</v>
+      </c>
+      <c r="H14">
+        <v>-0.05564972212820908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03994416971832407</v>
+        <v>0.0415601344239276</v>
       </c>
       <c r="C15">
-        <v>-0.0137977277548056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003065192590572301</v>
+      </c>
+      <c r="D15">
+        <v>-0.01511645980092104</v>
+      </c>
+      <c r="E15">
+        <v>-0.04057724486167231</v>
+      </c>
+      <c r="F15">
+        <v>0.003285360044249638</v>
+      </c>
+      <c r="G15">
+        <v>0.02023161287252554</v>
+      </c>
+      <c r="H15">
+        <v>-0.06122776141484276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05596437081314137</v>
+        <v>0.06381519891150993</v>
       </c>
       <c r="C16">
-        <v>-0.04508134674792988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02819536192736239</v>
+      </c>
+      <c r="D16">
+        <v>-0.06103224742434028</v>
+      </c>
+      <c r="E16">
+        <v>0.0008227361536896559</v>
+      </c>
+      <c r="F16">
+        <v>0.03057722285558007</v>
+      </c>
+      <c r="G16">
+        <v>-0.008828143775395933</v>
+      </c>
+      <c r="H16">
+        <v>-0.04836076748114182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06168715010754008</v>
+        <v>0.06177195617022536</v>
       </c>
       <c r="C20">
-        <v>-0.03692506065172844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01594853328859834</v>
+      </c>
+      <c r="D20">
+        <v>-0.04915193529081094</v>
+      </c>
+      <c r="E20">
+        <v>-0.015321774284907</v>
+      </c>
+      <c r="F20">
+        <v>0.02704301111485537</v>
+      </c>
+      <c r="G20">
+        <v>-0.01170697582551665</v>
+      </c>
+      <c r="H20">
+        <v>-0.03867032014913921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02380609212183464</v>
+        <v>0.02394640316649946</v>
       </c>
       <c r="C21">
-        <v>0.001029821551419847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008236590849294971</v>
+      </c>
+      <c r="D21">
+        <v>-0.03354592818194802</v>
+      </c>
+      <c r="E21">
+        <v>-0.08292475932235381</v>
+      </c>
+      <c r="F21">
+        <v>0.001002398665402793</v>
+      </c>
+      <c r="G21">
+        <v>0.01089595074387386</v>
+      </c>
+      <c r="H21">
+        <v>0.01754506686878173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06831904055819267</v>
+        <v>0.06374551155545105</v>
       </c>
       <c r="C22">
-        <v>-0.07041220563234647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0404931114485365</v>
+      </c>
+      <c r="D22">
+        <v>-0.1039744998084916</v>
+      </c>
+      <c r="E22">
+        <v>-0.6137971286557199</v>
+      </c>
+      <c r="F22">
+        <v>-0.1239063365266093</v>
+      </c>
+      <c r="G22">
+        <v>-0.01993351507706207</v>
+      </c>
+      <c r="H22">
+        <v>0.1113598876935808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06946296305842287</v>
+        <v>0.06419018387352826</v>
       </c>
       <c r="C23">
-        <v>-0.06995016224251638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03952034515016098</v>
+      </c>
+      <c r="D23">
+        <v>-0.104730048026289</v>
+      </c>
+      <c r="E23">
+        <v>-0.6128346728703669</v>
+      </c>
+      <c r="F23">
+        <v>-0.1231343674655578</v>
+      </c>
+      <c r="G23">
+        <v>-0.01838263990299971</v>
+      </c>
+      <c r="H23">
+        <v>0.1065587015628192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06468239843432499</v>
+        <v>0.07526814622377342</v>
       </c>
       <c r="C24">
-        <v>-0.05367527673999679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03359593964903768</v>
+      </c>
+      <c r="D24">
+        <v>-0.0643745952031495</v>
+      </c>
+      <c r="E24">
+        <v>-0.006905436984162665</v>
+      </c>
+      <c r="F24">
+        <v>0.04200915559465216</v>
+      </c>
+      <c r="G24">
+        <v>-0.007584643934808075</v>
+      </c>
+      <c r="H24">
+        <v>-0.05558713425603451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06488618451880196</v>
+        <v>0.0733409631333703</v>
       </c>
       <c r="C25">
-        <v>-0.05955449880175916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03810003291258894</v>
+      </c>
+      <c r="D25">
+        <v>-0.06238729524824257</v>
+      </c>
+      <c r="E25">
+        <v>-0.01052923228022025</v>
+      </c>
+      <c r="F25">
+        <v>0.0381287355620835</v>
+      </c>
+      <c r="G25">
+        <v>0.003006982481471488</v>
+      </c>
+      <c r="H25">
+        <v>-0.06072912466081854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03879886766297388</v>
+        <v>0.04178115591565491</v>
       </c>
       <c r="C26">
-        <v>-0.01490162622801369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005394348166977645</v>
+      </c>
+      <c r="D26">
+        <v>-0.02307276393344062</v>
+      </c>
+      <c r="E26">
+        <v>-0.03508528293209362</v>
+      </c>
+      <c r="F26">
+        <v>0.02395289452273485</v>
+      </c>
+      <c r="G26">
+        <v>-0.01196211548473367</v>
+      </c>
+      <c r="H26">
+        <v>-0.05750293374473264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05228475000933872</v>
+        <v>0.07305556271446489</v>
       </c>
       <c r="C28">
-        <v>-0.07272728752847804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07338525798490134</v>
+      </c>
+      <c r="D28">
+        <v>0.3232262346128423</v>
+      </c>
+      <c r="E28">
+        <v>-0.04010741879750805</v>
+      </c>
+      <c r="F28">
+        <v>0.05134206503928018</v>
+      </c>
+      <c r="G28">
+        <v>0.02676547855722059</v>
+      </c>
+      <c r="H28">
+        <v>-0.007158322681933669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03614074679861821</v>
+        <v>0.0439852908672209</v>
       </c>
       <c r="C29">
-        <v>-0.02986107067937647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02267201516963122</v>
+      </c>
+      <c r="D29">
+        <v>-0.009451206518302483</v>
+      </c>
+      <c r="E29">
+        <v>-0.0392070907598045</v>
+      </c>
+      <c r="F29">
+        <v>0.01603206840002737</v>
+      </c>
+      <c r="G29">
+        <v>-0.01581639956759133</v>
+      </c>
+      <c r="H29">
+        <v>-0.08571928248635656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1146944040976109</v>
+        <v>0.1319807296818584</v>
       </c>
       <c r="C30">
-        <v>-0.1009393483069887</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06535181691324869</v>
+      </c>
+      <c r="D30">
+        <v>-0.09367325640431381</v>
+      </c>
+      <c r="E30">
+        <v>-0.04310636707307181</v>
+      </c>
+      <c r="F30">
+        <v>0.01992473775503351</v>
+      </c>
+      <c r="G30">
+        <v>0.0229361677749584</v>
+      </c>
+      <c r="H30">
+        <v>0.04495738489476222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0378787038455326</v>
+        <v>0.04380270861591232</v>
       </c>
       <c r="C31">
-        <v>-0.02396392604398134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01406630082180622</v>
+      </c>
+      <c r="D31">
+        <v>-0.02768980706550362</v>
+      </c>
+      <c r="E31">
+        <v>-0.02163635245837292</v>
+      </c>
+      <c r="F31">
+        <v>0.01398491568249626</v>
+      </c>
+      <c r="G31">
+        <v>-0.0245703296893025</v>
+      </c>
+      <c r="H31">
+        <v>-0.0641335699843405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03330845869123865</v>
+        <v>0.03300773635949476</v>
       </c>
       <c r="C32">
-        <v>-0.02262848897635526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01282736320462954</v>
+      </c>
+      <c r="D32">
+        <v>-0.01296319210242978</v>
+      </c>
+      <c r="E32">
+        <v>-0.06800094736017664</v>
+      </c>
+      <c r="F32">
+        <v>-0.0007453250421977305</v>
+      </c>
+      <c r="G32">
+        <v>0.02944089366968259</v>
+      </c>
+      <c r="H32">
+        <v>-0.02890518165597345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07424880603952294</v>
+        <v>0.08805108581067825</v>
       </c>
       <c r="C33">
-        <v>-0.0532742964205187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03299644459786764</v>
+      </c>
+      <c r="D33">
+        <v>-0.06189806083831894</v>
+      </c>
+      <c r="E33">
+        <v>-0.01300782068487653</v>
+      </c>
+      <c r="F33">
+        <v>0.009937455839358313</v>
+      </c>
+      <c r="G33">
+        <v>-0.01724182213188579</v>
+      </c>
+      <c r="H33">
+        <v>-0.05433446998074071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0513036178503499</v>
+        <v>0.05810653738620528</v>
       </c>
       <c r="C34">
-        <v>-0.03441537001017839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01810568316409163</v>
+      </c>
+      <c r="D34">
+        <v>-0.05987305958789476</v>
+      </c>
+      <c r="E34">
+        <v>-0.0007081024056963692</v>
+      </c>
+      <c r="F34">
+        <v>0.02519471748413665</v>
+      </c>
+      <c r="G34">
+        <v>-0.003193578798649821</v>
+      </c>
+      <c r="H34">
+        <v>-0.03976557733380329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03547557358133607</v>
+        <v>0.04033760238285148</v>
       </c>
       <c r="C35">
-        <v>-0.01275353998301649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00514558890821044</v>
+      </c>
+      <c r="D35">
+        <v>-0.01542357360923723</v>
+      </c>
+      <c r="E35">
+        <v>-0.02217415311878453</v>
+      </c>
+      <c r="F35">
+        <v>0.002079830037130749</v>
+      </c>
+      <c r="G35">
+        <v>-0.01226744776733518</v>
+      </c>
+      <c r="H35">
+        <v>-0.03662623880363021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01796439788528851</v>
+        <v>0.0249619214244895</v>
       </c>
       <c r="C36">
-        <v>-0.01683275185878739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01267329393792836</v>
+      </c>
+      <c r="D36">
+        <v>-0.02029968438457364</v>
+      </c>
+      <c r="E36">
+        <v>-0.03797167053991828</v>
+      </c>
+      <c r="F36">
+        <v>0.02157311675218219</v>
+      </c>
+      <c r="G36">
+        <v>-0.01758622703845557</v>
+      </c>
+      <c r="H36">
+        <v>-0.05126075889047449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03819527204686375</v>
+        <v>0.04091855005250182</v>
       </c>
       <c r="C38">
-        <v>-0.009943974086359561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002446683275014133</v>
+      </c>
+      <c r="D38">
+        <v>-0.01386741365694571</v>
+      </c>
+      <c r="E38">
+        <v>-0.06101636120156882</v>
+      </c>
+      <c r="F38">
+        <v>-0.01580311116142458</v>
+      </c>
+      <c r="G38">
+        <v>0.01546801373624602</v>
+      </c>
+      <c r="H38">
+        <v>-0.03367580497767274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08678588647784183</v>
+        <v>0.1011722454965536</v>
       </c>
       <c r="C39">
-        <v>-0.08345312587568168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05498880810063186</v>
+      </c>
+      <c r="D39">
+        <v>-0.08356194127455892</v>
+      </c>
+      <c r="E39">
+        <v>0.01252227698068582</v>
+      </c>
+      <c r="F39">
+        <v>0.02135981745166971</v>
+      </c>
+      <c r="G39">
+        <v>0.01712864014541102</v>
+      </c>
+      <c r="H39">
+        <v>-0.04502765769877369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06677203757579293</v>
+        <v>0.07062157916098345</v>
       </c>
       <c r="C40">
-        <v>-0.05687881412109412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03376136856917387</v>
+      </c>
+      <c r="D40">
+        <v>-0.01083346099003723</v>
+      </c>
+      <c r="E40">
+        <v>-0.02763686656277186</v>
+      </c>
+      <c r="F40">
+        <v>-0.0511749636535314</v>
+      </c>
+      <c r="G40">
+        <v>0.07377628713110264</v>
+      </c>
+      <c r="H40">
+        <v>0.09734858339887607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03863217102208985</v>
+        <v>0.04296072926869302</v>
       </c>
       <c r="C41">
-        <v>-0.01494956422914503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.005743237254144991</v>
+      </c>
+      <c r="D41">
+        <v>-0.04041411639138618</v>
+      </c>
+      <c r="E41">
+        <v>-0.006773774319381875</v>
+      </c>
+      <c r="F41">
+        <v>-0.004968749552936314</v>
+      </c>
+      <c r="G41">
+        <v>0.009113549872057695</v>
+      </c>
+      <c r="H41">
+        <v>-0.04039108957133001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04351234756745867</v>
+        <v>0.05237181744378043</v>
       </c>
       <c r="C43">
-        <v>-0.03296135792540942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02031517105853627</v>
+      </c>
+      <c r="D43">
+        <v>-0.02920435984324927</v>
+      </c>
+      <c r="E43">
+        <v>-0.01730172772421494</v>
+      </c>
+      <c r="F43">
+        <v>0.01657019971741936</v>
+      </c>
+      <c r="G43">
+        <v>-0.01153610443699295</v>
+      </c>
+      <c r="H43">
+        <v>-0.04971329120245689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08941144125622934</v>
+        <v>0.09167022439390975</v>
       </c>
       <c r="C44">
-        <v>-0.09471583692897691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06132658172663456</v>
+      </c>
+      <c r="D44">
+        <v>-0.05730280506200979</v>
+      </c>
+      <c r="E44">
+        <v>-0.09366013029987928</v>
+      </c>
+      <c r="F44">
+        <v>0.05868695868796996</v>
+      </c>
+      <c r="G44">
+        <v>0.0187632877709779</v>
+      </c>
+      <c r="H44">
+        <v>0.07348049056104104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02718410531528425</v>
+        <v>0.02847655830709556</v>
       </c>
       <c r="C46">
-        <v>-0.01865664410230699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009885348758768437</v>
+      </c>
+      <c r="D46">
+        <v>-0.03427337282502551</v>
+      </c>
+      <c r="E46">
+        <v>-0.01790109419270445</v>
+      </c>
+      <c r="F46">
+        <v>0.01932235582556207</v>
+      </c>
+      <c r="G46">
+        <v>-0.0002904094458508233</v>
+      </c>
+      <c r="H46">
+        <v>-0.04568839820703301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02713840371296307</v>
+        <v>0.02973619583944118</v>
       </c>
       <c r="C47">
-        <v>-0.02116474370665839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01275256649488219</v>
+      </c>
+      <c r="D47">
+        <v>-0.01761588332739613</v>
+      </c>
+      <c r="E47">
+        <v>-0.04730160810307545</v>
+      </c>
+      <c r="F47">
+        <v>0.013624207982631</v>
+      </c>
+      <c r="G47">
+        <v>-0.03413736996050174</v>
+      </c>
+      <c r="H47">
+        <v>-0.03914712042255377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02847782952524602</v>
+        <v>0.0327333567194262</v>
       </c>
       <c r="C48">
-        <v>-0.02033984683781697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01202545594335067</v>
+      </c>
+      <c r="D48">
+        <v>-0.03358242987959225</v>
+      </c>
+      <c r="E48">
+        <v>-0.04089480690985541</v>
+      </c>
+      <c r="F48">
+        <v>0.01573742369286799</v>
+      </c>
+      <c r="G48">
+        <v>0.001644224231184864</v>
+      </c>
+      <c r="H48">
+        <v>-0.05214497323039916</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1500158158829432</v>
+        <v>0.1790189761190081</v>
       </c>
       <c r="C49">
-        <v>-0.08937752800814051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05297660595572904</v>
+      </c>
+      <c r="D49">
+        <v>-0.0166753796348367</v>
+      </c>
+      <c r="E49">
+        <v>0.1296585481340838</v>
+      </c>
+      <c r="F49">
+        <v>0.02610039124971094</v>
+      </c>
+      <c r="G49">
+        <v>-0.05000590368369344</v>
+      </c>
+      <c r="H49">
+        <v>0.2703524386814138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03411217657143029</v>
+        <v>0.04291521663813264</v>
       </c>
       <c r="C50">
-        <v>-0.02851744855603329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02154993885263141</v>
+      </c>
+      <c r="D50">
+        <v>-0.03766548928680023</v>
+      </c>
+      <c r="E50">
+        <v>-0.04630878552730852</v>
+      </c>
+      <c r="F50">
+        <v>0.02650769640474698</v>
+      </c>
+      <c r="G50">
+        <v>-0.02175146210284167</v>
+      </c>
+      <c r="H50">
+        <v>-0.07104429038359703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02461560889640243</v>
+        <v>0.02729052414952824</v>
       </c>
       <c r="C51">
-        <v>-0.01647748435720203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.009763412674898839</v>
+      </c>
+      <c r="D51">
+        <v>-0.02466854300165188</v>
+      </c>
+      <c r="E51">
+        <v>-0.01912708810824092</v>
+      </c>
+      <c r="F51">
+        <v>0.01362769543649271</v>
+      </c>
+      <c r="G51">
+        <v>0.003745418977567362</v>
+      </c>
+      <c r="H51">
+        <v>-0.01636597777191722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1380064873351475</v>
+        <v>0.1580042714668417</v>
       </c>
       <c r="C53">
-        <v>-0.09708659454743625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06480241473420671</v>
+      </c>
+      <c r="D53">
+        <v>-0.02087180226684318</v>
+      </c>
+      <c r="E53">
+        <v>0.04135266007699023</v>
+      </c>
+      <c r="F53">
+        <v>0.01552790318236147</v>
+      </c>
+      <c r="G53">
+        <v>-0.003412445342733407</v>
+      </c>
+      <c r="H53">
+        <v>-0.150786346371132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05103398795826729</v>
+        <v>0.05517355715030687</v>
       </c>
       <c r="C54">
-        <v>-0.02989229056048489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01438926002733411</v>
+      </c>
+      <c r="D54">
+        <v>-0.03458557614027155</v>
+      </c>
+      <c r="E54">
+        <v>-0.04773341827099925</v>
+      </c>
+      <c r="F54">
+        <v>0.01933671657392846</v>
+      </c>
+      <c r="G54">
+        <v>0.001420208186925509</v>
+      </c>
+      <c r="H54">
+        <v>-0.05978746924588235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09131238897774591</v>
+        <v>0.09887601279219278</v>
       </c>
       <c r="C55">
-        <v>-0.06262138874893984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0395791060175027</v>
+      </c>
+      <c r="D55">
+        <v>-0.03131773937717544</v>
+      </c>
+      <c r="E55">
+        <v>-0.006258690131161704</v>
+      </c>
+      <c r="F55">
+        <v>0.02091614058380622</v>
+      </c>
+      <c r="G55">
+        <v>-0.001903105453858756</v>
+      </c>
+      <c r="H55">
+        <v>-0.1367586459143875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1385355948388336</v>
+        <v>0.1582322109167185</v>
       </c>
       <c r="C56">
-        <v>-0.1099284597577056</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0740598328993845</v>
+      </c>
+      <c r="D56">
+        <v>-0.01837154876565676</v>
+      </c>
+      <c r="E56">
+        <v>0.04020151237643411</v>
+      </c>
+      <c r="F56">
+        <v>0.04664532319261372</v>
+      </c>
+      <c r="G56">
+        <v>-0.01537887348078322</v>
+      </c>
+      <c r="H56">
+        <v>-0.154834236443966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1145461596049574</v>
+        <v>0.1000014650682773</v>
       </c>
       <c r="C58">
-        <v>-0.02866007659419936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01280570335282891</v>
+      </c>
+      <c r="D58">
+        <v>-0.06105787786470837</v>
+      </c>
+      <c r="E58">
+        <v>-0.1853150964382329</v>
+      </c>
+      <c r="F58">
+        <v>0.01993624718480626</v>
+      </c>
+      <c r="G58">
+        <v>-0.04532992215267981</v>
+      </c>
+      <c r="H58">
+        <v>0.1915787379777984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1085690980264821</v>
+        <v>0.1469138313795258</v>
       </c>
       <c r="C59">
-        <v>-0.08392406295047267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08217277110921606</v>
+      </c>
+      <c r="D59">
+        <v>0.3542507182642772</v>
+      </c>
+      <c r="E59">
+        <v>-0.05047714857741196</v>
+      </c>
+      <c r="F59">
+        <v>-0.01741747637629636</v>
+      </c>
+      <c r="G59">
+        <v>-0.0375146114936003</v>
+      </c>
+      <c r="H59">
+        <v>-0.01179385754064891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1853560297282136</v>
+        <v>0.2187345898714944</v>
       </c>
       <c r="C60">
-        <v>-0.1196576523437448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07770690381911875</v>
+      </c>
+      <c r="D60">
+        <v>-0.01638842452419123</v>
+      </c>
+      <c r="E60">
+        <v>0.07209937411229554</v>
+      </c>
+      <c r="F60">
+        <v>0.04099680384766254</v>
+      </c>
+      <c r="G60">
+        <v>0.02256503630379009</v>
+      </c>
+      <c r="H60">
+        <v>0.1711373100087753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07511930197466582</v>
+        <v>0.08485952441777951</v>
       </c>
       <c r="C61">
-        <v>-0.06272831113868986</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03998885577757084</v>
+      </c>
+      <c r="D61">
+        <v>-0.06143511505315336</v>
+      </c>
+      <c r="E61">
+        <v>0.01737671823697592</v>
+      </c>
+      <c r="F61">
+        <v>0.009047442572519868</v>
+      </c>
+      <c r="G61">
+        <v>-0.01561209057731152</v>
+      </c>
+      <c r="H61">
+        <v>-0.07018027709671588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1176454757042639</v>
+        <v>0.1383284202474263</v>
       </c>
       <c r="C62">
-        <v>-0.08307188161862569</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05516701825018939</v>
+      </c>
+      <c r="D62">
+        <v>-0.02241915771048112</v>
+      </c>
+      <c r="E62">
+        <v>0.05511127107150954</v>
+      </c>
+      <c r="F62">
+        <v>0.01981661203589108</v>
+      </c>
+      <c r="G62">
+        <v>0.02792950142579723</v>
+      </c>
+      <c r="H62">
+        <v>-0.1480552347711212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05084043442335747</v>
+        <v>0.05153934229278446</v>
       </c>
       <c r="C63">
-        <v>-0.03205964860125603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01664985095825296</v>
+      </c>
+      <c r="D63">
+        <v>-0.03183173596021108</v>
+      </c>
+      <c r="E63">
+        <v>-0.04730235865823475</v>
+      </c>
+      <c r="F63">
+        <v>0.01241744259158652</v>
+      </c>
+      <c r="G63">
+        <v>0.02768518804532467</v>
+      </c>
+      <c r="H63">
+        <v>-0.08434399608412876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1070891618505939</v>
+        <v>0.1121603288220002</v>
       </c>
       <c r="C64">
-        <v>-0.04362864434828843</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01385167356870425</v>
+      </c>
+      <c r="D64">
+        <v>-0.0467291842786848</v>
+      </c>
+      <c r="E64">
+        <v>-0.02494658129998034</v>
+      </c>
+      <c r="F64">
+        <v>0.05737313977059157</v>
+      </c>
+      <c r="G64">
+        <v>0.02121918889007196</v>
+      </c>
+      <c r="H64">
+        <v>-0.07754264268096946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.110496979373717</v>
+        <v>0.1244203991382708</v>
       </c>
       <c r="C65">
-        <v>-0.06736375350960924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04054095795334199</v>
+      </c>
+      <c r="D65">
+        <v>-0.01086671614719949</v>
+      </c>
+      <c r="E65">
+        <v>-0.0001510569516041612</v>
+      </c>
+      <c r="F65">
+        <v>0.06290220757085521</v>
+      </c>
+      <c r="G65">
+        <v>0.03281406902659347</v>
+      </c>
+      <c r="H65">
+        <v>0.0809354378634487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1341304432771528</v>
+        <v>0.1526106811018155</v>
       </c>
       <c r="C66">
-        <v>-0.09397693081821835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05543190438414551</v>
+      </c>
+      <c r="D66">
+        <v>-0.1178013568701303</v>
+      </c>
+      <c r="E66">
+        <v>0.05519756185842288</v>
+      </c>
+      <c r="F66">
+        <v>0.04015267173883664</v>
+      </c>
+      <c r="G66">
+        <v>0.018727835309311</v>
+      </c>
+      <c r="H66">
+        <v>-0.114704767486428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07031060282496501</v>
+        <v>0.07603125237287331</v>
       </c>
       <c r="C67">
-        <v>-0.02240306086660386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007463719910443609</v>
+      </c>
+      <c r="D67">
+        <v>-0.02520222357231389</v>
+      </c>
+      <c r="E67">
+        <v>-0.02676534516559244</v>
+      </c>
+      <c r="F67">
+        <v>0.004297512292520896</v>
+      </c>
+      <c r="G67">
+        <v>-0.005834288595167379</v>
+      </c>
+      <c r="H67">
+        <v>-0.02833998548201801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05460673973969096</v>
+        <v>0.06823743545760481</v>
       </c>
       <c r="C68">
-        <v>-0.04934596586083917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0492185318905428</v>
+      </c>
+      <c r="D68">
+        <v>0.2657066698202279</v>
+      </c>
+      <c r="E68">
+        <v>-0.0521028380062945</v>
+      </c>
+      <c r="F68">
+        <v>0.009953726039205441</v>
+      </c>
+      <c r="G68">
+        <v>-0.006871775909176735</v>
+      </c>
+      <c r="H68">
+        <v>-0.02366863125039321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04999386774982536</v>
+        <v>0.04976137371514231</v>
       </c>
       <c r="C69">
-        <v>-0.02429843576398686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007279812595921747</v>
+      </c>
+      <c r="D69">
+        <v>-0.03277760850753986</v>
+      </c>
+      <c r="E69">
+        <v>-0.01993561056089807</v>
+      </c>
+      <c r="F69">
+        <v>-0.002093779105734135</v>
+      </c>
+      <c r="G69">
+        <v>-0.01073287133019636</v>
+      </c>
+      <c r="H69">
+        <v>-0.06757563063539848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004317568163616903</v>
+        <v>0.01662150617202798</v>
       </c>
       <c r="C70">
-        <v>0.003559001114245175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003322200788202747</v>
+      </c>
+      <c r="D70">
+        <v>0.008516894634992625</v>
+      </c>
+      <c r="E70">
+        <v>0.01963643171059421</v>
+      </c>
+      <c r="F70">
+        <v>0.01338971399927514</v>
+      </c>
+      <c r="G70">
+        <v>-0.01759173338098136</v>
+      </c>
+      <c r="H70">
+        <v>0.0464002691994887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05687797915563641</v>
+        <v>0.07197808726639256</v>
       </c>
       <c r="C71">
-        <v>-0.04648061367301806</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04731278638355634</v>
+      </c>
+      <c r="D71">
+        <v>0.2996237521293579</v>
+      </c>
+      <c r="E71">
+        <v>-0.04916917062199119</v>
+      </c>
+      <c r="F71">
+        <v>0.03623024830788121</v>
+      </c>
+      <c r="G71">
+        <v>-0.005664456607035984</v>
+      </c>
+      <c r="H71">
+        <v>-0.008710140118130819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1319588016031996</v>
+        <v>0.1541087244923906</v>
       </c>
       <c r="C72">
-        <v>-0.07535775336990569</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04482032441747467</v>
+      </c>
+      <c r="D72">
+        <v>-0.005671728166107395</v>
+      </c>
+      <c r="E72">
+        <v>0.08977610989708484</v>
+      </c>
+      <c r="F72">
+        <v>-0.1603544283551762</v>
+      </c>
+      <c r="G72">
+        <v>0.1193092604186805</v>
+      </c>
+      <c r="H72">
+        <v>-0.02142626937663325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.247215164766322</v>
+        <v>0.2772375915452159</v>
       </c>
       <c r="C73">
-        <v>-0.1446655849379805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07900191015721598</v>
+      </c>
+      <c r="D73">
+        <v>-0.07245849158561816</v>
+      </c>
+      <c r="E73">
+        <v>0.1850572077660609</v>
+      </c>
+      <c r="F73">
+        <v>0.06913750869400506</v>
+      </c>
+      <c r="G73">
+        <v>-0.1730706936715049</v>
+      </c>
+      <c r="H73">
+        <v>0.5963860369171207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07308414935136169</v>
+        <v>0.08861158428335142</v>
       </c>
       <c r="C74">
-        <v>-0.08423852197756462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06290598775092286</v>
+      </c>
+      <c r="D74">
+        <v>-0.03395051448245825</v>
+      </c>
+      <c r="E74">
+        <v>0.007258810648975598</v>
+      </c>
+      <c r="F74">
+        <v>-0.0105200976700184</v>
+      </c>
+      <c r="G74">
+        <v>-0.03475349088506148</v>
+      </c>
+      <c r="H74">
+        <v>-0.1331643111354956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09349772315344998</v>
+        <v>0.1027366898250858</v>
       </c>
       <c r="C75">
-        <v>-0.06357011735083042</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03375706040097391</v>
+      </c>
+      <c r="D75">
+        <v>-0.01548030087143825</v>
+      </c>
+      <c r="E75">
+        <v>0.002054097509834356</v>
+      </c>
+      <c r="F75">
+        <v>0.05215535279365298</v>
+      </c>
+      <c r="G75">
+        <v>-0.01871354613909145</v>
+      </c>
+      <c r="H75">
+        <v>-0.1201659402472467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1160719512441798</v>
+        <v>0.1328544550494271</v>
       </c>
       <c r="C76">
-        <v>-0.09832023429602456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06713970766227856</v>
+      </c>
+      <c r="D76">
+        <v>-0.05353733698296601</v>
+      </c>
+      <c r="E76">
+        <v>-0.009398484240763585</v>
+      </c>
+      <c r="F76">
+        <v>0.06306612007031866</v>
+      </c>
+      <c r="G76">
+        <v>-0.007183845280885507</v>
+      </c>
+      <c r="H76">
+        <v>-0.1599251949151412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1136576794620275</v>
+        <v>0.1123516449320031</v>
       </c>
       <c r="C77">
-        <v>-0.06083524608729229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02409455503257377</v>
+      </c>
+      <c r="D77">
+        <v>-0.01614266804995284</v>
+      </c>
+      <c r="E77">
+        <v>0.006448175045973352</v>
+      </c>
+      <c r="F77">
+        <v>0.2516712199985351</v>
+      </c>
+      <c r="G77">
+        <v>0.8842826279658801</v>
+      </c>
+      <c r="H77">
+        <v>0.1211576129955483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08668799940866448</v>
+        <v>0.109625721332413</v>
       </c>
       <c r="C78">
-        <v>-0.04907020346784632</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03148134488821624</v>
+      </c>
+      <c r="D78">
+        <v>-0.07679132209282791</v>
+      </c>
+      <c r="E78">
+        <v>-0.0609802744344846</v>
+      </c>
+      <c r="F78">
+        <v>0.01071476775918423</v>
+      </c>
+      <c r="G78">
+        <v>0.02980877686597369</v>
+      </c>
+      <c r="H78">
+        <v>0.119390122905756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1352279405568106</v>
+        <v>0.150950410840092</v>
       </c>
       <c r="C79">
-        <v>-0.1036319004282741</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06352365761307649</v>
+      </c>
+      <c r="D79">
+        <v>-0.02918363526673792</v>
+      </c>
+      <c r="E79">
+        <v>0.02513658066689713</v>
+      </c>
+      <c r="F79">
+        <v>0.0284104256118234</v>
+      </c>
+      <c r="G79">
+        <v>-0.02069137180041695</v>
+      </c>
+      <c r="H79">
+        <v>-0.1469306479179134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04035325974624568</v>
+        <v>0.03865189714975737</v>
       </c>
       <c r="C80">
-        <v>-0.01880929634389706</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006188004941279159</v>
+      </c>
+      <c r="D80">
+        <v>-0.02864748710158531</v>
+      </c>
+      <c r="E80">
+        <v>0.005319761263410988</v>
+      </c>
+      <c r="F80">
+        <v>-0.02663807542657107</v>
+      </c>
+      <c r="G80">
+        <v>-0.03655990583974864</v>
+      </c>
+      <c r="H80">
+        <v>-0.04502775756630785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1088768885785809</v>
+        <v>0.1192688874155885</v>
       </c>
       <c r="C81">
-        <v>-0.0778256613005017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04553193523653414</v>
+      </c>
+      <c r="D81">
+        <v>-0.03123982235694098</v>
+      </c>
+      <c r="E81">
+        <v>0.01140114315387217</v>
+      </c>
+      <c r="F81">
+        <v>0.02699470792319692</v>
+      </c>
+      <c r="G81">
+        <v>-0.05640909889059246</v>
+      </c>
+      <c r="H81">
+        <v>-0.1709938380417323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.11689849857647</v>
+        <v>0.1274327725948283</v>
       </c>
       <c r="C82">
-        <v>-0.08958067131545826</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0568836376852747</v>
+      </c>
+      <c r="D82">
+        <v>-0.03462988519754698</v>
+      </c>
+      <c r="E82">
+        <v>0.02625148016121947</v>
+      </c>
+      <c r="F82">
+        <v>0.05004846900303461</v>
+      </c>
+      <c r="G82">
+        <v>-0.0480836800194939</v>
+      </c>
+      <c r="H82">
+        <v>-0.1762555492132823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07262245739726141</v>
+        <v>0.0748154057535495</v>
       </c>
       <c r="C83">
-        <v>-0.02232450907000396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.001747227352641592</v>
+      </c>
+      <c r="D83">
+        <v>-0.04362676125494541</v>
+      </c>
+      <c r="E83">
+        <v>-0.01281373247856709</v>
+      </c>
+      <c r="F83">
+        <v>0.007159211305435971</v>
+      </c>
+      <c r="G83">
+        <v>-0.08106686548076693</v>
+      </c>
+      <c r="H83">
+        <v>0.006889082109743538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02375933830641878</v>
+        <v>0.03432144424268446</v>
       </c>
       <c r="C84">
-        <v>-0.02845082209074887</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02408959132707366</v>
+      </c>
+      <c r="D84">
+        <v>-0.02691543086269983</v>
+      </c>
+      <c r="E84">
+        <v>-0.01758735566858404</v>
+      </c>
+      <c r="F84">
+        <v>-0.05392814700100685</v>
+      </c>
+      <c r="G84">
+        <v>-0.05690367071225363</v>
+      </c>
+      <c r="H84">
+        <v>-0.005256620025141626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1134194211882859</v>
+        <v>0.1176394770610006</v>
       </c>
       <c r="C85">
-        <v>-0.0749605632500218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03894672645012472</v>
+      </c>
+      <c r="D85">
+        <v>-0.03326913743621382</v>
+      </c>
+      <c r="E85">
+        <v>-0.001850241777640118</v>
+      </c>
+      <c r="F85">
+        <v>0.07583257158518351</v>
+      </c>
+      <c r="G85">
+        <v>-0.02685085759522594</v>
+      </c>
+      <c r="H85">
+        <v>-0.1280123347970979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04720437135759507</v>
+        <v>0.050466181461423</v>
       </c>
       <c r="C86">
-        <v>-0.0235257358330649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01087108268906023</v>
+      </c>
+      <c r="D86">
+        <v>-0.01769266832137732</v>
+      </c>
+      <c r="E86">
+        <v>-0.05841853545397802</v>
+      </c>
+      <c r="F86">
+        <v>0.02695437971125112</v>
+      </c>
+      <c r="G86">
+        <v>-0.01555536785806456</v>
+      </c>
+      <c r="H86">
+        <v>-0.006493079964778483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1172334205724119</v>
+        <v>0.1229178137950722</v>
       </c>
       <c r="C87">
-        <v>-0.08352041544389713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0433965611651598</v>
+      </c>
+      <c r="D87">
+        <v>-0.06733248040518189</v>
+      </c>
+      <c r="E87">
+        <v>-0.01494764681051325</v>
+      </c>
+      <c r="F87">
+        <v>0.02668621640383573</v>
+      </c>
+      <c r="G87">
+        <v>0.1064027160619208</v>
+      </c>
+      <c r="H87">
+        <v>-0.002177878467758018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05270735215925947</v>
+        <v>0.05880214938549244</v>
       </c>
       <c r="C88">
-        <v>-0.03809985143203445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02302048638772439</v>
+      </c>
+      <c r="D88">
+        <v>-0.02489604052760462</v>
+      </c>
+      <c r="E88">
+        <v>-0.02012700835184632</v>
+      </c>
+      <c r="F88">
+        <v>0.01297020699167354</v>
+      </c>
+      <c r="G88">
+        <v>0.009324173820299259</v>
+      </c>
+      <c r="H88">
+        <v>-0.06851679962586345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07644992372339594</v>
+        <v>0.1039195238290239</v>
       </c>
       <c r="C89">
-        <v>-0.07193900301458767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07265331882239531</v>
+      </c>
+      <c r="D89">
+        <v>0.3313216653606215</v>
+      </c>
+      <c r="E89">
+        <v>-0.08023980123815165</v>
+      </c>
+      <c r="F89">
+        <v>0.06436853424449275</v>
+      </c>
+      <c r="G89">
+        <v>-0.02702400016413223</v>
+      </c>
+      <c r="H89">
+        <v>0.004401412178876171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06774047445372754</v>
+        <v>0.08774376771151304</v>
       </c>
       <c r="C90">
-        <v>-0.0608709749837977</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05971239660733823</v>
+      </c>
+      <c r="D90">
+        <v>0.3057161223741966</v>
+      </c>
+      <c r="E90">
+        <v>-0.06479143745311754</v>
+      </c>
+      <c r="F90">
+        <v>-0.01477168845468919</v>
+      </c>
+      <c r="G90">
+        <v>-0.005967683006205243</v>
+      </c>
+      <c r="H90">
+        <v>-0.02607240236566616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07722984267653309</v>
+        <v>0.08699289964122432</v>
       </c>
       <c r="C91">
-        <v>-0.06544968990647369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04251882264101345</v>
+      </c>
+      <c r="D91">
+        <v>-0.02523928738780305</v>
+      </c>
+      <c r="E91">
+        <v>-0.0125635581545167</v>
+      </c>
+      <c r="F91">
+        <v>0.009261131766242594</v>
+      </c>
+      <c r="G91">
+        <v>-0.04165430773241092</v>
+      </c>
+      <c r="H91">
+        <v>-0.08778019818049097</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08098538465890508</v>
+        <v>0.1011875639883698</v>
       </c>
       <c r="C92">
-        <v>-0.07030264159867465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06536717968284667</v>
+      </c>
+      <c r="D92">
+        <v>0.3331744883433464</v>
+      </c>
+      <c r="E92">
+        <v>-0.04956778813714493</v>
+      </c>
+      <c r="F92">
+        <v>0.02870207492478023</v>
+      </c>
+      <c r="G92">
+        <v>-0.00873496925055299</v>
+      </c>
+      <c r="H92">
+        <v>-0.03586080187502563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06144797922455333</v>
+        <v>0.08456422163981164</v>
       </c>
       <c r="C93">
-        <v>-0.06071753521403053</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06368873166211123</v>
+      </c>
+      <c r="D93">
+        <v>0.3027924548420708</v>
+      </c>
+      <c r="E93">
+        <v>-0.03899943258024223</v>
+      </c>
+      <c r="F93">
+        <v>0.041094395858875</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001245270924174249</v>
+      </c>
+      <c r="H93">
+        <v>0.00728224030271309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1234546207174563</v>
+        <v>0.1270706663489794</v>
       </c>
       <c r="C94">
-        <v>-0.07720554065994084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03568968580062443</v>
+      </c>
+      <c r="D94">
+        <v>-0.05460919559251306</v>
+      </c>
+      <c r="E94">
+        <v>0.02384571332213629</v>
+      </c>
+      <c r="F94">
+        <v>0.03110691591826868</v>
+      </c>
+      <c r="G94">
+        <v>-0.04521542369946912</v>
+      </c>
+      <c r="H94">
+        <v>-0.08687688391463405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1124400145282897</v>
+        <v>0.1187905271748102</v>
       </c>
       <c r="C95">
-        <v>-0.05865394010631571</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02252297446602185</v>
+      </c>
+      <c r="D95">
+        <v>-0.0586550440569347</v>
+      </c>
+      <c r="E95">
+        <v>0.01557400988265816</v>
+      </c>
+      <c r="F95">
+        <v>0.0207744896342114</v>
+      </c>
+      <c r="G95">
+        <v>-0.01263807927538352</v>
+      </c>
+      <c r="H95">
+        <v>-0.02072778982766971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1987923916748436</v>
+        <v>0.2196578473962736</v>
       </c>
       <c r="C97">
-        <v>-0.07561315111687192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03247907548096892</v>
+      </c>
+      <c r="D97">
+        <v>0.02705596361205509</v>
+      </c>
+      <c r="E97">
+        <v>0.1517437632230005</v>
+      </c>
+      <c r="F97">
+        <v>-0.890248607062014</v>
+      </c>
+      <c r="G97">
+        <v>0.1991799854690375</v>
+      </c>
+      <c r="H97">
+        <v>-0.02436934741684535</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2366485163121331</v>
+        <v>0.2675395858089029</v>
       </c>
       <c r="C98">
-        <v>-0.1213546024837204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05978788733539619</v>
+      </c>
+      <c r="D98">
+        <v>-0.05143358738539279</v>
+      </c>
+      <c r="E98">
+        <v>0.1609686654256565</v>
+      </c>
+      <c r="F98">
+        <v>0.03361481130517978</v>
+      </c>
+      <c r="G98">
+        <v>-0.2588681889377817</v>
+      </c>
+      <c r="H98">
+        <v>0.1508915988570765</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5560535469708188</v>
+        <v>0.3447211571962085</v>
       </c>
       <c r="C99">
-        <v>0.8212505736102337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9269954086906674</v>
+      </c>
+      <c r="D99">
+        <v>0.07495046017509265</v>
+      </c>
+      <c r="E99">
+        <v>-0.04156746398674688</v>
+      </c>
+      <c r="F99">
+        <v>0.04053562951835781</v>
+      </c>
+      <c r="G99">
+        <v>-0.01176763708521643</v>
+      </c>
+      <c r="H99">
+        <v>-0.04026199637569827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03621293278356434</v>
+        <v>0.04404667031160324</v>
       </c>
       <c r="C101">
-        <v>-0.0298727102904055</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02271917489098923</v>
+      </c>
+      <c r="D101">
+        <v>-0.01011012068722219</v>
+      </c>
+      <c r="E101">
+        <v>-0.03859918047821203</v>
+      </c>
+      <c r="F101">
+        <v>0.01556135693987852</v>
+      </c>
+      <c r="G101">
+        <v>-0.01598437428134908</v>
+      </c>
+      <c r="H101">
+        <v>-0.0849546747565053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
